--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -640,12 +644,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>A coded concept identifying which substance or product can be dispensed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -668,16 +666,22 @@
     <t>RXD-2-Dispense/Give Code</t>
   </si>
   <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+    <t>処方する製剤を表すコード。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
@@ -886,13 +890,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -3653,16 +3650,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3688,26 +3685,26 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>193</v>
@@ -3725,19 +3722,19 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -3745,7 +3742,7 @@
         <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -3755,7 +3752,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3767,16 +3764,16 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3802,11 +3799,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3839,26 +3838,28 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3876,18 +3877,20 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3912,13 +3915,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3936,10 +3939,10 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3948,38 +3951,38 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3991,17 +3994,15 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4038,37 +4039,37 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4082,15 +4083,15 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>79</v>
@@ -4102,23 +4103,21 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4154,19 +4153,19 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4178,13 +4177,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4193,12 +4192,12 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4206,10 +4205,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4218,19 +4217,23 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4278,25 +4281,25 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4305,7 +4308,7 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -4314,14 +4317,14 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4333,17 +4336,15 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4380,37 +4381,37 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4428,14 +4429,14 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4444,23 +4445,21 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4496,37 +4495,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4535,12 +4534,12 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4548,7 +4547,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
@@ -4563,18 +4562,20 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4640,7 +4641,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4649,12 +4650,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4662,7 +4663,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4677,18 +4678,18 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4754,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4763,12 +4764,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4776,7 +4777,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4791,17 +4792,17 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4850,7 +4851,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4868,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4877,12 +4878,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4905,19 +4906,17 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4966,7 +4965,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4984,7 +4983,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4993,12 +4992,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5021,19 +5020,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5082,7 +5081,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5100,7 +5099,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5109,16 +5108,14 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5139,18 +5136,20 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>279</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5198,10 +5197,10 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -5213,24 +5212,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>205</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5253,16 +5252,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5312,7 +5311,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5327,24 +5326,24 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5367,16 +5366,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5426,7 +5425,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5441,10 +5440,10 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5458,7 +5457,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5481,16 +5480,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5540,7 +5539,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5558,10 +5557,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5572,7 +5571,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5595,13 +5594,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5652,7 +5651,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5667,10 +5666,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5684,7 +5683,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5710,10 +5709,10 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5764,7 +5763,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5782,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5796,7 +5795,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5822,10 +5821,10 @@
         <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>147</v>
@@ -5878,7 +5877,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5896,7 +5895,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5910,11 +5909,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5936,10 +5935,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>147</v>
@@ -5994,7 +5993,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6026,7 +6025,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6052,14 +6051,14 @@
         <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6087,11 +6086,11 @@
         <v>180</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6126,7 +6125,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6140,7 +6139,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6163,13 +6162,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6220,7 +6219,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>86</v>
@@ -6235,10 +6234,10 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6252,7 +6251,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6275,16 +6274,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6334,7 +6333,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6352,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6366,7 +6365,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6389,16 +6388,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6448,7 +6447,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6463,24 +6462,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6506,13 +6505,13 @@
         <v>186</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6541,11 +6540,11 @@
         <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6580,21 +6579,21 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6617,16 +6616,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6676,7 +6675,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6688,27 +6687,27 @@
         <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6731,16 +6730,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6790,7 +6789,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6802,27 +6801,27 @@
         <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6845,13 +6844,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6902,7 +6901,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6920,21 +6919,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6957,13 +6956,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7014,7 +7013,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7029,24 +7028,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7069,16 +7068,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7128,7 +7127,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7146,21 +7145,21 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7183,16 +7182,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7242,7 +7241,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7260,13 +7259,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7274,7 +7273,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7297,16 +7296,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7356,7 +7355,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7371,24 +7370,24 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7411,16 +7410,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7470,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7488,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7502,7 +7501,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7525,13 +7524,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7582,7 +7581,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7600,13 +7599,13 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7614,7 +7613,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7640,10 +7639,10 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7694,7 +7693,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7712,7 +7711,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7726,7 +7725,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7752,10 +7751,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>147</v>
@@ -7808,7 +7807,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7826,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7840,11 +7839,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7866,10 +7865,10 @@
         <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>147</v>
@@ -7924,7 +7923,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7956,7 +7955,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7979,13 +7978,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8036,7 +8035,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>86</v>
@@ -8054,7 +8053,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8068,7 +8067,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8094,13 +8093,13 @@
         <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8129,11 +8128,11 @@
         <v>180</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8150,7 +8149,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8168,21 +8167,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8208,13 +8207,13 @@
         <v>186</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8243,11 +8242,11 @@
         <v>180</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8282,13 +8281,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8296,7 +8295,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8319,16 +8318,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8378,7 +8377,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8396,13 +8395,13 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8410,11 +8409,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8433,16 +8432,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8492,7 +8491,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8510,7 +8509,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8524,7 +8523,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8547,16 +8546,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8606,7 +8605,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8624,7 +8623,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -688,6 +688,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3994,13 +3998,13 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4051,7 +4055,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4069,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4083,7 +4087,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4109,10 +4113,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>147</v>
@@ -4156,7 +4160,7 @@
         <v>134</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
@@ -4165,7 +4169,7 @@
         <v>135</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4183,7 +4187,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4197,7 +4201,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4220,19 +4224,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4281,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4299,7 +4303,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4308,12 +4312,12 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4336,13 +4340,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4393,7 +4397,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4411,7 +4415,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4425,7 +4429,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4451,10 +4455,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4498,7 +4502,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4507,7 +4511,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4525,7 +4529,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4539,7 +4543,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4565,16 +4569,16 @@
         <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4623,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4641,7 +4645,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4650,12 +4654,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4678,16 +4682,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4737,7 +4741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4755,7 +4759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4764,12 +4768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4795,14 +4799,14 @@
         <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4851,7 +4855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4869,7 +4873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4878,12 +4882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4906,17 +4910,17 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4965,7 +4969,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4983,7 +4987,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4992,12 +4996,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5020,19 +5024,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5081,7 +5085,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5099,7 +5103,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5108,12 +5112,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5136,19 +5140,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5197,7 +5201,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5215,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5224,12 +5228,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5252,16 +5256,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5311,7 +5315,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5326,24 +5330,24 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5366,16 +5370,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5425,7 +5429,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5440,10 +5444,10 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5457,7 +5461,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5480,16 +5484,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5539,7 +5543,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5557,10 +5561,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5571,7 +5575,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5594,13 +5598,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5651,7 +5655,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5666,10 +5670,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5683,7 +5687,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5706,13 +5710,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5763,7 +5767,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5781,7 +5785,7 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5799,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5821,10 +5825,10 @@
         <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>147</v>
@@ -5877,7 +5881,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5895,7 +5899,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5909,11 +5913,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5935,10 +5939,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>147</v>
@@ -5993,7 +5997,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6025,7 +6029,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6051,14 +6055,14 @@
         <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6086,10 +6090,10 @@
         <v>180</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6107,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6125,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6139,7 +6143,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6162,13 +6166,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6219,7 +6223,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>86</v>
@@ -6234,10 +6238,10 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6251,7 +6255,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6274,16 +6278,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6333,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6351,7 +6355,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6365,7 +6369,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6388,16 +6392,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6447,7 +6451,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6462,24 +6466,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6505,13 +6509,13 @@
         <v>186</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6540,10 +6544,10 @@
         <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6561,7 +6565,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6579,21 +6583,21 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6616,16 +6620,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6675,7 +6679,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6687,13 +6691,13 @@
         <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6702,12 +6706,12 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6730,16 +6734,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6789,7 +6793,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6801,13 +6805,13 @@
         <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6816,12 +6820,12 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6844,13 +6848,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6901,7 +6905,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6919,21 +6923,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6956,13 +6960,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7013,7 +7017,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7028,24 +7032,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7068,16 +7072,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7127,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7145,21 +7149,21 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7182,16 +7186,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7241,7 +7245,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7259,13 +7263,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7273,7 +7277,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7296,16 +7300,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7355,7 +7359,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7370,10 +7374,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7382,12 +7386,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7410,16 +7414,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7469,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7487,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7501,7 +7505,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7524,13 +7528,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7581,7 +7585,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7599,13 +7603,13 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7613,7 +7617,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7636,13 +7640,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7693,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7711,7 +7715,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7725,7 +7729,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7751,10 +7755,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>147</v>
@@ -7807,7 +7811,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7825,7 +7829,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7839,11 +7843,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7865,10 +7869,10 @@
         <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>147</v>
@@ -7923,7 +7927,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7955,7 +7959,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7978,13 +7982,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8035,7 +8039,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>86</v>
@@ -8053,7 +8057,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8067,7 +8071,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8093,13 +8097,13 @@
         <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8128,10 +8132,10 @@
         <v>180</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8149,7 +8153,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8167,21 +8171,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8207,13 +8211,13 @@
         <v>186</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8242,10 +8246,10 @@
         <v>180</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8263,7 +8267,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8281,13 +8285,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8295,7 +8299,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8318,16 +8322,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8377,7 +8381,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8395,13 +8399,13 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8409,11 +8413,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8432,16 +8436,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8491,7 +8495,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8509,7 +8513,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8523,7 +8527,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8546,16 +8550,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8605,7 +8609,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8623,7 +8627,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -620,10 +620,6 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -644,6 +640,12 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
+    <t>A coded concept identifying which substance or product can be dispensed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -664,18 +666,6 @@
   </si>
   <si>
     <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>medicationCodeableConcept</t>
@@ -1756,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3654,16 +3644,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3689,26 +3679,26 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>193</v>
@@ -3726,19 +3716,19 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -3746,17 +3736,17 @@
         <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3768,16 +3758,16 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3803,13 +3793,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3842,28 +3832,26 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>209</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3881,20 +3869,18 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3919,13 +3905,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3943,10 +3929,10 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3955,38 +3941,38 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3998,15 +3984,17 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4043,37 +4031,37 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4087,15 +4075,15 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>79</v>
@@ -4107,21 +4095,23 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4157,19 +4147,19 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4181,13 +4171,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4196,12 +4186,12 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4209,11 +4199,11 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4221,23 +4211,19 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4285,25 +4271,25 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4312,23 +4298,23 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4340,15 +4326,17 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4385,37 +4373,37 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4429,18 +4417,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4449,21 +4437,23 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4499,37 +4489,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4538,12 +4528,12 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4551,7 +4541,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
@@ -4566,20 +4556,18 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4627,7 +4615,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4645,7 +4633,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4654,12 +4642,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4667,7 +4655,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4682,18 +4670,18 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4741,7 +4729,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4759,7 +4747,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4768,12 +4756,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4781,7 +4769,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4796,17 +4784,17 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4855,7 +4843,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4873,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4882,12 +4870,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4910,17 +4898,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4969,7 +4959,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4987,7 +4977,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4996,12 +4986,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5024,19 +5014,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5085,7 +5075,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5103,7 +5093,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5112,12 +5102,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5125,7 +5115,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5140,20 +5130,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5216,24 +5204,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5241,7 +5229,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5253,19 +5241,19 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5315,7 +5303,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5330,24 +5318,24 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5358,7 +5346,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5370,16 +5358,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5429,13 +5417,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5444,13 +5432,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5461,7 +5449,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5484,17 +5472,15 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5543,7 +5529,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5558,13 +5544,13 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5575,7 +5561,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5586,7 +5572,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5598,13 +5584,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5655,25 +5641,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5687,18 +5673,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5710,15 +5696,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5767,25 +5755,25 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5799,11 +5787,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5816,24 +5804,26 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5881,7 +5871,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5899,7 +5889,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5913,42 +5903,40 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>148</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5973,13 +5961,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5997,25 +5985,25 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6029,7 +6017,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6037,7 +6025,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
@@ -6052,18 +6040,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6087,34 +6073,34 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -6126,10 +6112,10 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6143,7 +6129,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6151,7 +6137,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6166,15 +6152,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6223,10 +6211,10 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -6238,10 +6226,10 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6255,7 +6243,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6266,7 +6254,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6278,16 +6266,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6337,13 +6325,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6352,24 +6340,24 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6380,7 +6368,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6392,16 +6380,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>333</v>
+        <v>186</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6427,13 +6415,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6451,13 +6439,13 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
@@ -6466,24 +6454,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6491,7 +6479,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
@@ -6506,16 +6494,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6541,13 +6529,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6565,7 +6553,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6574,30 +6562,30 @@
         <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6605,7 +6593,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6620,16 +6608,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6679,7 +6667,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6691,13 +6679,13 @@
         <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6706,7 +6694,7 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44">
@@ -6731,20 +6719,18 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6802,30 +6788,30 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6833,7 +6819,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -6845,16 +6831,16 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6905,7 +6891,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6920,24 +6906,24 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6945,7 +6931,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
@@ -6960,15 +6946,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7017,7 +7005,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7032,24 +7020,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7060,7 +7048,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7072,16 +7060,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7131,13 +7119,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -7149,21 +7137,21 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7186,16 +7174,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7245,7 +7233,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7260,24 +7248,24 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7300,16 +7288,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7359,7 +7347,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7374,10 +7362,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7386,12 +7374,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7402,7 +7390,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7414,17 +7402,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7473,13 +7459,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7491,13 +7477,13 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7505,7 +7491,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7528,13 +7514,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7585,7 +7571,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>213</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7597,19 +7583,19 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>214</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7617,18 +7603,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7640,15 +7626,17 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7697,25 +7685,25 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7729,11 +7717,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7746,24 +7734,26 @@
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7811,7 +7801,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7829,7 +7819,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7843,43 +7833,39 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7927,25 +7913,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -7959,7 +7945,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7967,7 +7953,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
@@ -7982,15 +7968,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8015,13 +8003,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8039,10 +8027,10 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -8057,21 +8045,21 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8082,7 +8070,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8097,13 +8085,13 @@
         <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8132,34 +8120,34 @@
         <v>180</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8171,21 +8159,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8208,16 +8196,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>186</v>
+        <v>424</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8243,31 +8231,31 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8285,13 +8273,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8299,11 +8287,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8322,16 +8310,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8381,7 +8369,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8399,13 +8387,13 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8413,11 +8401,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8436,16 +8424,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8495,7 +8483,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8513,7 +8501,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8522,120 +8510,6 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
@@ -1263,7 +1263,7 @@
     <t>MedicationDispense.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage_Prescription}
+    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -671,13 +671,106 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
+    <t>コード集で定義された医薬品コード</t>
+  </si>
+  <si>
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
-    <t>MedicationDispense.medication[x].id</t>
+    <t>MedicationDispense.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
+</t>
+  </si>
+  <si>
+    <t>Who received medication　投与対象患者</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.
+投与を受ける患者</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationDispense.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
+</t>
+  </si>
+  <si>
+    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care that establishes the context for this event.
+調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Information that supports the dispensing of the medication　薬の調剤をサポートする情報</t>
+  </si>
+  <si>
+    <t>Additional information that supports the medication being dispensed.
+調剤される薬剤をサポートする追加情報への任意のリソースへの参照。</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event　調剤を実施した人</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the event.
+調剤した人を示す</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -696,7 +789,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationDispense.medication[x].extension</t>
+    <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -705,281 +798,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
-</t>
-  </si>
-  <si>
-    <t>Who received medication　投与対象患者</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.
-投与を受ける患者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationDispense.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
-</t>
-  </si>
-  <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Information that supports the dispensing of the medication　薬の調剤をサポートする情報</t>
-  </si>
-  <si>
-    <t>Additional information that supports the medication being dispensed.
-調剤される薬剤をサポートする追加情報への任意のリソースへの参照。</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event　調剤を実施した人</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the event.
-調剤した人を示す</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1306,6 +1125,10 @@
   </si>
   <si>
     <t>MedicationDispense.substitution.wasSubstituted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す。</t>
@@ -1746,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1755,7 +1578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1782,7 +1605,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3761,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>195</v>
@@ -3796,10 +3619,10 @@
         <v>110</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3849,7 +3672,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3857,7 +3680,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
@@ -3869,18 +3692,20 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3929,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3941,38 +3766,38 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3984,16 +3809,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4031,16 +3856,16 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>219</v>
@@ -4049,19 +3874,19 @@
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4075,7 +3900,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4083,7 +3908,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>79</v>
@@ -4095,23 +3920,21 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4159,7 +3982,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4177,21 +4000,21 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4202,7 +4025,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4214,13 +4037,13 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4271,25 +4094,25 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4303,18 +4126,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4326,17 +4149,15 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4373,37 +4194,37 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4417,18 +4238,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4437,23 +4258,21 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4501,25 +4320,25 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4528,46 +4347,48 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4615,25 +4436,25 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4642,12 +4463,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4655,7 +4476,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4667,20 +4488,20 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4705,13 +4526,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4729,7 +4550,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4747,7 +4568,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4756,12 +4577,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4769,7 +4590,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4781,21 +4602,19 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4843,10 +4662,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4858,10 +4677,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4870,12 +4689,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4895,23 +4714,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4959,7 +4776,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4977,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4986,12 +4803,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5002,7 +4819,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5011,23 +4828,21 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5075,13 +4890,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -5090,24 +4905,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5115,7 +4930,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5127,19 +4942,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5165,13 +4980,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5189,7 +5004,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5204,24 +5019,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5229,7 +5044,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5244,16 +5059,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5303,7 +5118,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5312,16 +5127,16 @@
         <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5330,12 +5145,12 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5346,7 +5161,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5358,16 +5173,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5417,39 +5232,39 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5460,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5469,16 +5284,16 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5529,13 +5344,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5544,7 +5359,7 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>303</v>
@@ -5553,15 +5368,15 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5569,7 +5384,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5584,13 +5399,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5641,7 +5456,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5653,38 +5468,38 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5696,16 +5511,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5755,43 +5570,43 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5804,26 +5619,24 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5871,7 +5684,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5883,19 +5696,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5903,7 +5716,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5914,7 +5727,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5926,18 +5739,18 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5961,13 +5774,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5985,13 +5798,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6000,10 +5813,10 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6012,12 +5825,12 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6025,10 +5838,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6040,15 +5853,17 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6097,13 +5912,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -6112,10 +5927,10 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6129,7 +5944,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6152,17 +5967,15 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6211,7 +6024,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6229,13 +6042,13 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6243,7 +6056,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6254,7 +6067,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6266,17 +6079,15 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6325,50 +6136,50 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6380,16 +6191,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>147</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6415,13 +6226,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6439,73 +6250,75 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6553,25 +6366,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>353</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6580,12 +6393,12 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6593,7 +6406,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6608,17 +6421,15 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6667,25 +6478,25 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>352</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6694,12 +6505,12 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6719,18 +6530,20 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6755,13 +6568,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6779,7 +6592,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6797,21 +6610,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6819,10 +6632,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6834,15 +6647,17 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6867,13 +6682,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6891,13 +6706,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6906,24 +6721,24 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6934,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6946,16 +6761,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7005,13 +6820,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -7023,25 +6838,25 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7060,16 +6875,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7119,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7137,13 +6952,13 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7151,7 +6966,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7174,16 +6989,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7233,7 +7048,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7248,10 +7063,10 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7260,1256 +7075,6 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
         <v>77</v>
       </c>
     </row>
